--- a/src/json/template2.xlsx
+++ b/src/json/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-prisma-postgres-1\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F20F63-0F06-461E-9A03-687F93D85E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CCD76C-6F66-457A-A600-7B34DFF03A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>{}</t>
   </si>
@@ -93,34 +93,124 @@
     <t>Строка 10</t>
   </si>
   <si>
-    <t>#1$20</t>
-  </si>
-  <si>
-    <t>#1$21</t>
-  </si>
-  <si>
-    <t>#1$22</t>
-  </si>
-  <si>
-    <t>#1$23</t>
-  </si>
-  <si>
-    <t>#1$24</t>
-  </si>
-  <si>
-    <t>#1$25</t>
-  </si>
-  <si>
-    <t>#1$26</t>
-  </si>
-  <si>
-    <t>#1$27</t>
-  </si>
-  <si>
-    <t>#1$28</t>
-  </si>
-  <si>
-    <t>#1$29</t>
+    <t>#0.0.1_1</t>
+  </si>
+  <si>
+    <t>#0.0.1_2</t>
+  </si>
+  <si>
+    <t>#0.0.1_3</t>
+  </si>
+  <si>
+    <t>#0.0.1_4</t>
+  </si>
+  <si>
+    <t>#0.0.1_5</t>
+  </si>
+  <si>
+    <t>#0.0.1_6</t>
+  </si>
+  <si>
+    <t>#0.0.1_7</t>
+  </si>
+  <si>
+    <t>#0.0.1_8</t>
+  </si>
+  <si>
+    <t>#0.0.1_9</t>
+  </si>
+  <si>
+    <t>#0.0.1_10</t>
+  </si>
+  <si>
+    <t>#0.1.1_1</t>
+  </si>
+  <si>
+    <t>#0.1.1_2</t>
+  </si>
+  <si>
+    <t>#0.1.1_3</t>
+  </si>
+  <si>
+    <t>#0.1.1_4</t>
+  </si>
+  <si>
+    <t>#0.1.1_5</t>
+  </si>
+  <si>
+    <t>#0.1.1_6</t>
+  </si>
+  <si>
+    <t>#0.1.1_7</t>
+  </si>
+  <si>
+    <t>#0.1.1_8</t>
+  </si>
+  <si>
+    <t>#0.1.1_9</t>
+  </si>
+  <si>
+    <t>#0.1.1_10</t>
+  </si>
+  <si>
+    <t>#0.2.1_1</t>
+  </si>
+  <si>
+    <t>#0.2.1_2</t>
+  </si>
+  <si>
+    <t>#0.2.1_3</t>
+  </si>
+  <si>
+    <t>#0.2.1_4</t>
+  </si>
+  <si>
+    <t>#0.2.1_5</t>
+  </si>
+  <si>
+    <t>#0.2.1_6</t>
+  </si>
+  <si>
+    <t>#0.2.1_7</t>
+  </si>
+  <si>
+    <t>#0.2.1_8</t>
+  </si>
+  <si>
+    <t>#0.2.1_9</t>
+  </si>
+  <si>
+    <t>#0.2.1_10</t>
+  </si>
+  <si>
+    <t>#0.3.1_1</t>
+  </si>
+  <si>
+    <t>#0.3.1_2</t>
+  </si>
+  <si>
+    <t>#0.3.1_3</t>
+  </si>
+  <si>
+    <t>#0.3.1_4</t>
+  </si>
+  <si>
+    <t>#0.3.1_5</t>
+  </si>
+  <si>
+    <t>#0.3.1_6</t>
+  </si>
+  <si>
+    <t>#0.3.1_7</t>
+  </si>
+  <si>
+    <t>#0.3.1_8</t>
+  </si>
+  <si>
+    <t>#0.3.1_9</t>
+  </si>
+  <si>
+    <t>#0.3.1_10</t>
   </si>
 </sst>
 </file>
@@ -509,7 +599,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(B3:C3)</f>
@@ -586,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(B3:G3)</f>
@@ -604,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D12" si="0">SUM(B4:C4)</f>
@@ -614,10 +704,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H12" si="1">SUM(B4:G4)</f>
@@ -632,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
@@ -642,10 +732,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
@@ -660,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
@@ -670,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
@@ -688,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
@@ -698,10 +788,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
@@ -716,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -726,10 +816,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
@@ -744,7 +834,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
@@ -754,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
@@ -772,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -782,10 +872,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
@@ -800,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
@@ -810,10 +900,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
@@ -828,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
@@ -838,10 +928,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>

--- a/src/json/template2.xlsx
+++ b/src/json/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-prisma-postgres-1\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CCD76C-6F66-457A-A600-7B34DFF03A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34204ACC-089E-4B2F-B065-D84939FE30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,24 +45,6 @@
     <t>Название</t>
   </si>
   <si>
-    <t>=SUM(B3:B4)</t>
-  </si>
-  <si>
-    <t>=SUM(C3:C4)</t>
-  </si>
-  <si>
-    <t>=SUM(D3:D4)</t>
-  </si>
-  <si>
-    <t>=SUM(F3:F4)</t>
-  </si>
-  <si>
-    <t>=SUM(G3:G4)</t>
-  </si>
-  <si>
-    <t>=SUM(H3:H4)</t>
-  </si>
-  <si>
     <t>Строка 1</t>
   </si>
   <si>
@@ -211,6 +193,24 @@
   </si>
   <si>
     <t>#0.3.1_10</t>
+  </si>
+  <si>
+    <t>=SUM(B3:B12)</t>
+  </si>
+  <si>
+    <t>=SUM(C3:C12)</t>
+  </si>
+  <si>
+    <t>=SUM(D3:D12)</t>
+  </si>
+  <si>
+    <t>=SUM(F3:F12)</t>
+  </si>
+  <si>
+    <t>=SUM(G3:G12)</t>
+  </si>
+  <si>
+    <t>=SUM(H3:H12)</t>
   </si>
 </sst>
 </file>
@@ -599,18 +599,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -660,26 +652,26 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(B3:C3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(B3:G3)</f>
@@ -688,26 +680,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D12" si="0">SUM(B4:C4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H12" si="1">SUM(B4:G4)</f>
@@ -716,26 +708,26 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
@@ -744,26 +736,26 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
@@ -772,26 +764,26 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
@@ -800,26 +792,26 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
@@ -828,26 +820,26 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
@@ -856,26 +848,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
@@ -884,26 +876,26 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
@@ -912,26 +904,26 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
@@ -943,23 +935,23 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
